--- a/Parametric/Param_2.xlsx
+++ b/Parametric/Param_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Test: bpu_2 (Parameter = 2)</t>
   </si>
@@ -43,28 +43,47 @@
     <t xml:space="preserve">always_not_taken</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and it’s 1/3 of all mispredictions =&gt; 33.33% of 66.67% is main loop mispredicts. Tested branch is for() with two stages: 1 and then 0. The first is taken and the second is not taken =&gt; 1/3 is predicted and 1/3 is mispredicted. 1/3 + 1/3 = 66.67% </t>
+  </si>
+  <si>
     <t xml:space="preserve">always_taken</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and it’s 1/3 of all predictions. Tested branch is for() with two stages: 1 and then 0. The first is taken and the second is not taken =&gt; 1/3 is mispredicted and 1/3 is predicted. 1/3 = 33.37% </t>
+  </si>
+  <si>
     <t xml:space="preserve">backward_jumps</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is unconditional backward jump =&gt; 1/3 of all predictions is predicted. Tested branch is for() with backward jump and it consists from two stages: 1 and then 0. The first is taken and the second is not taken =&gt; 1/3 is predicted and 1/3 is mispredicted. 1/3 = 33.33%</t>
+  </si>
+  <si>
     <t xml:space="preserve">saturating_one_bit</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/3 predictions is true. Tested branch is jump from for and has two stages: t0 = 1 – jump, t0 = 0 – not jump. =&gt; NT becomes T after 1, but T becomes NT after 0. It changes after each prediction  and it always fail =&gt; 2/3 of all predictions is fail. 66.67%</t>
+  </si>
+  <si>
     <t xml:space="preserve">saturating_two_bits</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/3 predictions is true. Tested branch is jump from for and has two stages: t0 = 1 – jump, t0 = 0 – not jump. =&gt; WEAKLY NT becomes WEAKLY T after 1, but WEAKLY T becomes WEAKLY NT after 0. It changes after each prediction  and it always fail =&gt; 2/3 of all predictions is fail. 66.67%(it isn’t better then one bit, because we can’t use strongly NT and T)</t>
+  </si>
+  <si>
     <t xml:space="preserve">adaptive_two_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first two times =&gt; 1/3 of all predictions is true(0 misses). Tested branch is for() with two stages: t0 = 1 and then t0 = 0 (The first is taken and the second is not taken) =&gt; we have history 101010101010… with two patterns 01 and 10. =&gt; after 01 is always 0 and after 10 is always 1. Predictor can predict all stages(except first two) =&gt; it is always true. =&gt; 0% mispredicts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -136,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,6 +173,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,7 +200,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -223,50 +246,86 @@
       <c r="C3" s="4" t="n">
         <v>0.666664</v>
       </c>
+      <c r="D3" s="5" t="n">
+        <v>0.666663</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.333336</v>
+        <v>0.333337</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.333336</v>
+        <v>0.333337</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.666667</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.666667</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0.666667</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.666667</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.333336</v>
+        <v>1E-005</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Parametric/Param_2.xlsx
+++ b/Parametric/Param_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">Test: bpu_2 (Parameter = 2)</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">saturating_two_bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/3 predictions is true. Tested branch is jump from for and has two stages: t0 = 1 – jump, t0 = 0 – not jump. =&gt; WEAKLY NT becomes WEAKLY T after 1, but WEAKLY T becomes WEAKLY NT after 0. It changes after each prediction  and it always fail =&gt; 2/3 of all predictions is fail. 66.67%(it isn’t better then one bit, because we can’t use strongly NT and T)</t>
   </si>
   <si>
     <t xml:space="preserve">adaptive_two_levels</t>
@@ -90,6 +87,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -111,6 +109,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +159,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,7 +167,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,7 +199,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,13 +309,13 @@
         <v>0.666667</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1E-005</v>
@@ -325,7 +324,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
